--- a/biology/Botanique/Théâtre_Silvain/Théâtre_Silvain.xlsx
+++ b/biology/Botanique/Théâtre_Silvain/Théâtre_Silvain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_Silvain</t>
+          <t>Théâtre_Silvain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le théâtre Silvain est un théâtre de verdure situé au fond du vallon de la Fausse-Monnaie, dans le quartier d'Endoume à Marseille (7e). Capable d'accueillir 4 000 à 5 000 personnes, il est inauguré en 1923. Cédé à la Ville de Marseille en 1941, ouvert sporadiquement avant d'être entièrement rénové en 1999. Depuis 2009, une programmation régulière y est proposée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_Silvain</t>
+          <t>Théâtre_Silvain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dominique Piazza (1860-1941), premier président des excursionnistes marseillais, fait l'acquisition d'une propriété au cœur du vallon du Silence, devenu vallon de la Fausse-Monnaie, sur laquelle sera construit le théâtre[1].
-Dominique Piazza envoie l'architecte Jean Boët en Grèce pour chercher inspiration ; il en revient avec les plans du théâtre d'Epidaure. Après six mois de travaux effectués par 170 ouvriers, avec pour matériaux ceux ayant servi à l'exposition coloniale de 1922[2] le théâtre est inauguré le 14 juillet 1923 par Eugène Silvain (1851-1930), Doyen de la Comédie-Française, et sa femme Louise Silvain (1874-1930), et baptisé en leur honneur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dominique Piazza (1860-1941), premier président des excursionnistes marseillais, fait l'acquisition d'une propriété au cœur du vallon du Silence, devenu vallon de la Fausse-Monnaie, sur laquelle sera construit le théâtre.
+Dominique Piazza envoie l'architecte Jean Boët en Grèce pour chercher inspiration ; il en revient avec les plans du théâtre d'Epidaure. Après six mois de travaux effectués par 170 ouvriers, avec pour matériaux ceux ayant servi à l'exposition coloniale de 1922 le théâtre est inauguré le 14 juillet 1923 par Eugène Silvain (1851-1930), Doyen de la Comédie-Française, et sa femme Louise Silvain (1874-1930), et baptisé en leur honneur.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_Silvain</t>
+          <t>Théâtre_Silvain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Programmation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>21 octobre 1978 : Festival rock avec les groupes suivants : Starshooter, Bijou, Little Bob Story, Au Bonheur des Dames, Ganafoul, Vendome (Organisation, Patrice Valfré)
-11 mai-21 mai 2016 : Les doigts d'une main ne sont pas semblables, ainsi en est-il des enfants d'une même famille (Badaboum Théâtre)[3]
-16 juin 2016 : Massilia Sound System, le film[4]
+11 mai-21 mai 2016 : Les doigts d'une main ne sont pas semblables, ainsi en est-il des enfants d'une même famille (Badaboum Théâtre)
+16 juin 2016 : Massilia Sound System, le film
 7 juin 2018 : Polo et Pan / L'Impératrice  (L'Édition Festival)
 8 juin 2018 : Camille (L'Édition Festival)
 15 juin 2018 : Aksak / Les Dames de la Joliette / Saba Trio (Festival Caravansérail)
